--- a/exceldata/excel/all/F-福利表.xlsx
+++ b/exceldata/excel/all/F-福利表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11540"/>
+    <workbookView windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="福利表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>填写备注</t>
   </si>
@@ -103,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -118,12 +118,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -131,14 +170,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -154,115 +239,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,37 +283,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,144 +439,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -486,14 +486,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,6 +509,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,30 +539,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,184 +569,172 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1097,12 +1083,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1225,59 +1211,63 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="3">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1289,17 +1279,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="35.25" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="32.25" customWidth="1"/>
@@ -1387,43 +1377,49 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="3">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
